--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56801.08237865008</v>
+        <v>-58688.66389505214</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227837.4315363018</v>
+        <v>133784.9290985775</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>67.67447272019403</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>164.7314984317826</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>78.32618729827834</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>75.5186256659392</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>268.5876485621594</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>166.0756005456932</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>261.0843625317721</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.90301252244944</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>165.1182835606716</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.562624396424752</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.37246427491677</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>66.90445977359168</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>61.47226067794296</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>234.1231749377855</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>31.42218700821058</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>195.3170818870007</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>140.0680651027554</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>42.51277927769389</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,10 +2558,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>58.50637023037447</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>31.13654107019622</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>14.32148215341361</v>
+        <v>22.14609241444803</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337354</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346322</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1799.76938401301</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1430.806867072598</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1072.541168465848</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>686.7529158676036</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>275.7670110779961</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X2" t="n">
-        <v>2189.908715988822</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1799.76938401301</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>555.1337307379863</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.1882299887828</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>130.2244218869697</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970484</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.909162857192</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4729,40 +4729,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.726987855212</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N12" t="n">
-        <v>1569.24764349283</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.068505649155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229249</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7169704793947</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5264,37 +5264,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5358,25 +5358,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>647.788949166931</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L15" t="n">
-        <v>894.5540770733951</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.889396603097</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>158.1993786066664</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W16" t="n">
-        <v>754.894602230607</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>526.9050513325897</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M18" t="n">
-        <v>1552.546540725493</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N18" t="n">
-        <v>1897.067196363111</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>2145.820610447073</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>773.1661474848147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>604.2299645569078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>454.1133251445721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>306.2002315621789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>159.3102840642686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>159.3102840642686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>159.3102840642686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>727.647686332073</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150544</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>954.8146123150544</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>954.8146123150544</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>327.180197328635</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M21" t="n">
-        <v>1095.548343721096</v>
+        <v>887.0301175853479</v>
       </c>
       <c r="N21" t="n">
-        <v>1899.959921985247</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.713336069209</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P21" t="n">
-        <v>2331.35681368256</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1467.176687721326</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1267.256677636879</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1043.471262426384</v>
       </c>
       <c r="U22" t="n">
-        <v>877.9208635589189</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V22" t="n">
-        <v>623.236375353032</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W22" t="n">
-        <v>623.236375353032</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>395.2468244550147</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.2468244550147</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,19 +5987,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1002.792923427374</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M24" t="n">
-        <v>1426.94561082251</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.466266460128</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O24" t="n">
-        <v>2440.930027762787</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>607.4265777132426</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="C25" t="n">
-        <v>438.4903947853357</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="D25" t="n">
-        <v>438.4903947853357</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="E25" t="n">
-        <v>290.5773012029425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>290.5773012029425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473454</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.867621687013</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X25" t="n">
-        <v>1009.867621687013</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y25" t="n">
-        <v>789.0750425434824</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6221,19 +6221,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L27" t="n">
-        <v>836.4717212750119</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M27" t="n">
-        <v>1604.839867667473</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N27" t="n">
-        <v>1949.360523305091</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O27" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>715.2736218676861</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.055751909234</v>
+        <v>789.0753054710165</v>
       </c>
       <c r="W28" t="n">
-        <v>1164.055751909234</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="X28" t="n">
-        <v>936.0662010112162</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.2736218676861</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M30" t="n">
-        <v>1608.660951743751</v>
+        <v>744.3684618792639</v>
       </c>
       <c r="N30" t="n">
-        <v>1953.181607381369</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.930027762787</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>673.1887347098091</v>
+        <v>439.5324299542196</v>
       </c>
       <c r="C31" t="n">
-        <v>560.013417063273</v>
+        <v>326.3571123076836</v>
       </c>
       <c r="D31" t="n">
-        <v>465.6576429323081</v>
+        <v>232.0013381767187</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,16 +6637,16 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
         <v>1568.628130167071</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.336733737484</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>964.1080481208371</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>799.0763342586779</v>
+        <v>565.4200295030885</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,13 +6698,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6780,25 +6780,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>452.5377573864724</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M33" t="n">
-        <v>772.8730769161741</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.284655180325</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O33" t="n">
-        <v>2246.748416482984</v>
+        <v>2111.570778050962</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108317</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229658</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506712</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308319</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504497</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103138</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982982</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859415</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045193</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010303</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>550.0023305088838</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>1318.370476901345</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N36" t="n">
-        <v>2122.782055165496</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O36" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N39" t="n">
-        <v>2305.425532778847</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O39" t="n">
-        <v>2554.178946862809</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171745</v>
+        <v>435.8912381133352</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.482307609636</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.893885873787</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7783,31 +7783,31 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7840,13 +7840,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>193.2031211041759</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>268.9113090133608</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>377.0476533442679</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>186.0244650756819</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,13 +11154,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>2.128537537956277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>85.04858374801448</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>48.94698478632904</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>52.11417746079186</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>78.5421653955823</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>90.92027051157666</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>6.365897543813828</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>123.9807891856837</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>108.7404508682534</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>255.1008113283812</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>76.90922386459845</v>
+        <v>69.08461360356397</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.547562078485498e-12</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-7.46078767100878e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1114432.82025247</v>
+        <v>1114432.820252471</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1114432.82025247</v>
+        <v>1114432.820252471</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1114432.820252471</v>
+        <v>1114432.82025247</v>
       </c>
     </row>
     <row r="11">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="F2" t="n">
         <v>254168.8888295108</v>
       </c>
       <c r="G2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295109</v>
       </c>
       <c r="H2" t="n">
-        <v>254168.8888295109</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="I2" t="n">
         <v>254168.8888295108</v>
@@ -26338,19 +26338,19 @@
         <v>254168.8888295108</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.3892744261</v>
+        <v>264434.3892744259</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058922</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284577</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086681</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="H4" t="n">
-        <v>787.79369057589</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758629</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759211</v>
+        <v>787.7936905758359</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477242</v>
+        <v>18952.41620477244</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189638</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189635</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189637</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,25 +26488,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-545047.5212526809</v>
+        <v>-545047.5212526808</v>
       </c>
       <c r="C6" t="n">
-        <v>44920.35796186369</v>
+        <v>44920.35796186363</v>
       </c>
       <c r="D6" t="n">
-        <v>44920.35796186375</v>
+        <v>44920.35796186372</v>
       </c>
       <c r="E6" t="n">
-        <v>-363766.2672866778</v>
+        <v>-363863.7264126501</v>
       </c>
       <c r="F6" t="n">
-        <v>161393.7691902183</v>
+        <v>161296.3100642462</v>
       </c>
       <c r="G6" t="n">
-        <v>161393.7691902183</v>
+        <v>161296.3100642462</v>
       </c>
       <c r="H6" t="n">
-        <v>161393.7691902184</v>
+        <v>161296.310064246</v>
       </c>
       <c r="I6" t="n">
-        <v>161393.7691902183</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="J6" t="n">
-        <v>-15029.45000237462</v>
+        <v>-15126.9091283469</v>
       </c>
       <c r="K6" t="n">
-        <v>104691.1592365852</v>
+        <v>104672.6654986505</v>
       </c>
       <c r="L6" t="n">
-        <v>135573.9816531035</v>
+        <v>135573.9816531037</v>
       </c>
       <c r="M6" t="n">
-        <v>11115.87322013313</v>
+        <v>11115.87322013341</v>
       </c>
       <c r="N6" t="n">
         <v>145916.8884539705</v>
@@ -26561,7 +26561,7 @@
         <v>145916.8884539705</v>
       </c>
       <c r="P6" t="n">
-        <v>101754.2831511248</v>
+        <v>101754.2831511247</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>346.1096973006009</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>204.9996022466864</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>147.3834680907588</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>248.404147098418</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>101.1434521163096</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>83.12091415361559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>216.6582411177873</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>125.1535761242815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.9289676594879</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
   </sheetData>
@@ -31130,7 +31130,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,7 +31145,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,28 +31613,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,31 +31838,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>152.4580040397288</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>331.1308614851325</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>261.5081772691368</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>90.20175899432934</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,16 +32315,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>399.7368686068476</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>35.83627885109456</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32336,7 +32336,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,34 +32543,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>225.072861798231</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>104.8660281469029</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>23.85840434223292</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>267.7425307447073</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>175.1732645054591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>241.4090972701572</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,25 +33409,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33500,7 +33500,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -33509,25 +33509,25 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>126.0475280469437</v>
+        <v>251.8532112133289</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33740,31 +33740,31 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>98.44906376001148</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>71.2447481687679</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>220.9982683546636</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,16 +34375,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,22 +34445,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>191.5727678272053</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34469,13 +34469,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>476.0290338677104</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>582.3969363174176</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>388.1319753073564</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>438.2024212545496</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>723.3078984348292</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>383.8369411113148</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.129440800466</v>
+        <v>51.06908718215755</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>295.1683754480586</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>428.4370579748845</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>275.124479174518</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>394.3663287829269</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>426.4393393377442</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>126.7772750913425</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>492.6751721024423</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.7110267941227</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043193</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,19 +37157,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>310.5358892725506</v>
+        <v>436.3415724389358</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>330.7350292835965</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>234.4514088998235</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>419.2454104289881</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>472.2643431869487</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>47.47008529580771</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,16 +37947,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>539.5734300874255</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
